--- a/xlsx2.xlsx
+++ b/xlsx2.xlsx
@@ -29,7 +29,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>d</t>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
